--- a/biology/Médecine/Cytométrie_en_flux/Cytométrie_en_flux.xlsx
+++ b/biology/Médecine/Cytométrie_en_flux/Cytométrie_en_flux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cytom%C3%A9trie_en_flux</t>
+          <t>Cytométrie_en_flux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cytométrie en flux (CMF) est une technique de caractérisation individuelle, quantitative et qualitative, de particules en suspension dans un liquide. Un appareil fait défiler des particules, molécules ou cellules, à grande vitesse dans le faisceau d'un laser. La lumière issue, par diffusion ou fluorescence, du cytomètre permet de compter et de classer la population étudiée suivant plusieurs critères.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cytom%C3%A9trie_en_flux</t>
+          <t>Cytométrie_en_flux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Il s'agit d'analyser les signaux optiques ou physiques émis par une particule coupant le faisceau lumineux d’un laser ou d’une lampe à arc. 
 Les signaux mesurés sont essentiellement relatifs :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cytom%C3%A9trie_en_flux</t>
+          <t>Cytométrie_en_flux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Histoire et prospective</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers cytomètres en flux ont été inventés dans les années 1950.
 1934 : Premier article traitant de la cytométrie en flux, publié dans Science par Moldovan. Il y explique le comptage de cellules circulant dans un tube capillaire devant un détecteur photoélectrique.
-1941 : Utilisation d'anticorps couplés à une molécule fluorescente (fluorochrome), l'anthracène, pour détecter des pneumocoques[1]
+1941 : Utilisation d'anticorps couplés à une molécule fluorescente (fluorochrome), l'anthracène, pour détecter des pneumocoques
 1972 : Création de l'appareil nommé FACS (triage de sous population)
 1994 : commercialisation du premier trieur de cellule à haute vitesse
 2006 : Une vingtaine de sociétés commercialisent des appareils de cytométrie en flux, certains sont capables d'analyser les cellules à la vitesse de 100,000 évènements par seconde.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cytom%C3%A9trie_en_flux</t>
+          <t>Cytométrie_en_flux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,48 +602,157 @@
           <t>Signaux recueillis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les signaux optiques recueillis ont une intensité corrélée avec les propriétés particulaires.
-Lumière diffusée
-La lumière diffusée renseigne sur la morphologie et la structure de la particule. Si la diffusion de la lumière est mesurée dans l’axe du rayon incident, l’intensité du signal peut être corrélée avec la taille et la viabilité cellulaire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les signaux optiques recueillis ont une intensité corrélée avec les propriétés particulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cytométrie_en_flux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cytom%C3%A9trie_en_flux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Signaux recueillis</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lumière diffusée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lumière diffusée renseigne sur la morphologie et la structure de la particule. Si la diffusion de la lumière est mesurée dans l’axe du rayon incident, l’intensité du signal peut être corrélée avec la taille et la viabilité cellulaire.
 Sous un angle de 90°, la mesure correspond à la structure intracellulaire de la cellule (réfringence du cytoplasme, granulosité, morphologie, rapport nucléo-cytoplasmique).
 L’utilisation simultanée de ces deux paramètres permet de distinguer, dans un sang périphérique par exemple, les plaquettes, les lymphocytes, les monocytes et les polynucléaires.
-Lumière absorbée
-Cette mesure évolue proportionnellement au diamètre de la cellule (supposée sphérique) et à l’indice d’absorption des constituants cellulaires[Quoi ?].
-Fluorescence émise
-Cette fluorescence peut être spontanée, mais le plus souvent, elle est apportée à la cellule par un fluorochrome. Le fluorochrome absorbe l’énergie du laser et réémet l’énergie absorbée sous forme de photons d’une longueur d’onde plus élevée :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cytométrie_en_flux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cytom%C3%A9trie_en_flux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Signaux recueillis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lumière absorbée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mesure évolue proportionnellement au diamètre de la cellule (supposée sphérique) et à l’indice d’absorption des constituants cellulaires[Quoi ?].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cytométrie_en_flux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cytom%C3%A9trie_en_flux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Signaux recueillis</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fluorescence émise</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette fluorescence peut être spontanée, mais le plus souvent, elle est apportée à la cellule par un fluorochrome. Le fluorochrome absorbe l’énergie du laser et réémet l’énergie absorbée sous forme de photons d’une longueur d’onde plus élevée :
 fluorochromes à affinité propre pour un constituant cellulaire : par exemple pour les mesures d’ADN, d’ARN, de protéines, du pH, de calcium contenus dans la cellule ;
 fluorochromes couplés à un ligand spécifique. Cette spécificité peut être amenée par un couplage du fluorochrome à un anticorps ou un ligand spécifique d’un constituant cellulaire ;
 tandem de fluorochromes, deux fluorochromes couplés à un anticorps, permet d'utiliser un fluorochrome qui ne serait normalement pas excité pour un laser donné. Le premier fluorochrome est donc excité par un laser, l'émission de longueur d'onde se trouvant dans le spectre d'absorption du second, excite à son tour le deuxième fluorochrome qui émet donc sa propre longueur d'onde.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cytom%C3%A9trie_en_flux</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cytométrie_en_flux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cytom%C3%A9trie_en_flux</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Principales applications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hématologie a été l’une des premières disciplines médicales à bénéficier des applications cliniques de la cytométrie en flux. Certaines de ces applications sont maintenant utilisées régulièrement pour le diagnostic ou le suivi thérapeutique de différentes affections, notamment les hémopathies malignes. Ces applications concernent aussi bien l’étude fonctionnelle de cellules saines que la mise en évidence du caractère pathologique des cellules analysées. Bien que l'étude porte généralement sur les leucocytes, certaines affections plaquettaires (thrombopathies) ou encore des globules rouges ont un diagnostic pouvant être précisé par l'usage de la cytométrie en flux.
 En cancérologie, la détection de la cellule pathologique est l’application la plus développée. Cette détection repose essentiellement sur la mesure d’un contenu anormal d’ADN dans le noyau de la cellule tumorale.
